--- a/CleanData.xlsx
+++ b/CleanData.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="84">
   <si>
     <t>Region</t>
   </si>
@@ -119,70 +119,64 @@
     <t>CBD</t>
   </si>
   <si>
+    <t>S16</t>
+  </si>
+  <si>
+    <t>S17</t>
+  </si>
+  <si>
+    <t>S15</t>
+  </si>
+  <si>
+    <t>S18</t>
+  </si>
+  <si>
+    <t>BW2</t>
+  </si>
+  <si>
+    <t>BW2 S5</t>
+  </si>
+  <si>
+    <t>BW2 S4</t>
+  </si>
+  <si>
+    <t>BW2 S6</t>
+  </si>
+  <si>
+    <t>BW2 S12</t>
+  </si>
+  <si>
+    <t>BW2 S3</t>
+  </si>
+  <si>
+    <t>BW2 S7</t>
+  </si>
+  <si>
+    <t>BW2 S11</t>
+  </si>
+  <si>
+    <t>BW2 S2</t>
+  </si>
+  <si>
+    <t>BW2 S9</t>
+  </si>
+  <si>
+    <t>BW2 S8</t>
+  </si>
+  <si>
+    <t>BW2 S10</t>
+  </si>
+  <si>
+    <t>BW2 S1</t>
+  </si>
+  <si>
+    <t>LAD</t>
+  </si>
+  <si>
+    <t>S12</t>
+  </si>
+  <si>
     <t>S11</t>
-  </si>
-  <si>
-    <t>S16</t>
-  </si>
-  <si>
-    <t>S17</t>
-  </si>
-  <si>
-    <t>S15</t>
-  </si>
-  <si>
-    <t>S18</t>
-  </si>
-  <si>
-    <t>S13</t>
-  </si>
-  <si>
-    <t>S14</t>
-  </si>
-  <si>
-    <t>BW2</t>
-  </si>
-  <si>
-    <t>BW2 S5</t>
-  </si>
-  <si>
-    <t>BW2 S4</t>
-  </si>
-  <si>
-    <t>BW2 S6</t>
-  </si>
-  <si>
-    <t>BW2 S12</t>
-  </si>
-  <si>
-    <t>BW2 S3</t>
-  </si>
-  <si>
-    <t>BW2 S7</t>
-  </si>
-  <si>
-    <t>BW2 S11</t>
-  </si>
-  <si>
-    <t>BW2 S2</t>
-  </si>
-  <si>
-    <t>BW2 S9</t>
-  </si>
-  <si>
-    <t>BW2 S8</t>
-  </si>
-  <si>
-    <t>BW2 S10</t>
-  </si>
-  <si>
-    <t>BW2 S1</t>
-  </si>
-  <si>
-    <t>LAD</t>
-  </si>
-  <si>
-    <t>S12</t>
   </si>
   <si>
     <t>S10</t>
@@ -625,7 +619,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L79"/>
+  <dimension ref="A1:L76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1392,7 +1386,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
         <v>32</v>
@@ -1413,16 +1407,16 @@
         <v>43267</v>
       </c>
       <c r="H21" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>24.65005</v>
+        <v>24.64988</v>
       </c>
       <c r="L21" t="n">
         <v>-81.59641999999999</v>
@@ -1430,7 +1424,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
         <v>32</v>
@@ -1460,7 +1454,7 @@
         <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>24.64988</v>
+        <v>24.64989</v>
       </c>
       <c r="L22" t="n">
         <v>-81.59641999999999</v>
@@ -1468,7 +1462,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
         <v>32</v>
@@ -1492,21 +1486,21 @@
         <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="K23" t="n">
-        <v>24.64989</v>
+        <v>24.64994</v>
       </c>
       <c r="L23" t="n">
-        <v>-81.59641999999999</v>
+        <v>-81.59644</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
         <v>32</v>
@@ -1530,7 +1524,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
         <v>0.05</v>
@@ -1544,127 +1538,127 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="1" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>43058</v>
+        <v>43088</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>43172</v>
+        <v>43128</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>43267</v>
+        <v>43271</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
-        <v>0.05</v>
+        <v>3</v>
       </c>
       <c r="K25" t="n">
-        <v>24.64994</v>
+        <v>25.92484</v>
       </c>
       <c r="L25" t="n">
-        <v>-81.59644</v>
+        <v>-81.60919</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="1" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>43058</v>
+        <v>43088</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>43172</v>
+        <v>43128</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>43267</v>
+        <v>43271</v>
       </c>
       <c r="H26" t="n">
-        <v>0.05</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="K26" t="n">
-        <v>24.64998</v>
+        <v>25.92485</v>
       </c>
       <c r="L26" t="n">
-        <v>-81.59645999999999</v>
+        <v>-81.60921</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="1" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>43058</v>
+        <v>43088</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>43172</v>
+        <v>43128</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>43267</v>
+        <v>43271</v>
       </c>
       <c r="H27" t="n">
-        <v>0.05</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K27" t="n">
-        <v>24.64998</v>
+        <v>25.92481</v>
       </c>
       <c r="L27" t="n">
-        <v>-81.59645999999999</v>
+        <v>-81.60925</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="1" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D28" t="s">
         <v>42</v>
@@ -1679,30 +1673,30 @@
         <v>43271</v>
       </c>
       <c r="H28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="J28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K28" t="n">
-        <v>25.92484</v>
+        <v>25.92474</v>
       </c>
       <c r="L28" t="n">
-        <v>-81.60919</v>
+        <v>-81.60926000000001</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="1" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D29" t="s">
         <v>43</v>
@@ -1720,27 +1714,27 @@
         <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="J29" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="K29" t="n">
-        <v>25.92485</v>
+        <v>25.9249</v>
       </c>
       <c r="L29" t="n">
-        <v>-81.60921</v>
+        <v>-81.60927</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="1" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D30" t="s">
         <v>44</v>
@@ -1758,27 +1752,27 @@
         <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
         <v>2</v>
       </c>
       <c r="K30" t="n">
-        <v>25.92481</v>
+        <v>25.92482</v>
       </c>
       <c r="L30" t="n">
-        <v>-81.60925</v>
+        <v>-81.60930999999999</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="1" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D31" t="s">
         <v>45</v>
@@ -1793,30 +1787,30 @@
         <v>43271</v>
       </c>
       <c r="H31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I31" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="J31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K31" t="n">
-        <v>25.92474</v>
+        <v>25.92479</v>
       </c>
       <c r="L31" t="n">
-        <v>-81.60926000000001</v>
+        <v>-81.60930999999999</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="1" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D32" t="s">
         <v>46</v>
@@ -1831,30 +1825,30 @@
         <v>43271</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I32" t="n">
         <v>6.5</v>
       </c>
       <c r="J32" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="K32" t="n">
-        <v>25.9249</v>
+        <v>25.92488</v>
       </c>
       <c r="L32" t="n">
-        <v>-81.60927</v>
+        <v>-81.60933</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="1" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D33" t="s">
         <v>47</v>
@@ -1869,30 +1863,30 @@
         <v>43271</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="J33" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K33" t="n">
-        <v>25.92482</v>
+        <v>25.92488</v>
       </c>
       <c r="L33" t="n">
-        <v>-81.60930999999999</v>
+        <v>-81.60933</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="1" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D34" t="s">
         <v>48</v>
@@ -1910,27 +1904,27 @@
         <v>3</v>
       </c>
       <c r="I34" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="J34" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="K34" t="n">
-        <v>25.92479</v>
+        <v>25.92486</v>
       </c>
       <c r="L34" t="n">
-        <v>-81.60930999999999</v>
+        <v>-81.60934</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="1" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D35" t="s">
         <v>49</v>
@@ -1945,30 +1939,30 @@
         <v>43271</v>
       </c>
       <c r="H35" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I35" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="J35" t="n">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="K35" t="n">
-        <v>25.92488</v>
+        <v>25.92484</v>
       </c>
       <c r="L35" t="n">
-        <v>-81.60933</v>
+        <v>-81.60934</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="1" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D36" t="s">
         <v>50</v>
@@ -1986,141 +1980,141 @@
         <v>9</v>
       </c>
       <c r="I36" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="J36" t="n">
         <v>6</v>
       </c>
       <c r="K36" t="n">
-        <v>25.92488</v>
+        <v>25.92489</v>
       </c>
       <c r="L36" t="n">
-        <v>-81.60933</v>
+        <v>-81.60935000000001</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="1" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C37" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>43088</v>
+        <v>43057</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>43128</v>
+        <v>43173</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>43271</v>
+        <v>43266</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="K37" t="n">
-        <v>25.92486</v>
+        <v>24.66231</v>
       </c>
       <c r="L37" t="n">
-        <v>-81.60934</v>
+        <v>-81.60943</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="1" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C38" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>43088</v>
+        <v>43057</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>43128</v>
+        <v>43173</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>43271</v>
+        <v>43266</v>
       </c>
       <c r="H38" t="n">
-        <v>6</v>
+        <v>0.05</v>
       </c>
       <c r="I38" t="n">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="J38" t="n">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="K38" t="n">
-        <v>25.92484</v>
+        <v>24.66226</v>
       </c>
       <c r="L38" t="n">
-        <v>-81.60934</v>
+        <v>-81.6096</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" t="s">
         <v>51</v>
       </c>
-      <c r="B39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" t="s">
-        <v>41</v>
-      </c>
       <c r="D39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>43088</v>
+        <v>43057</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>43128</v>
+        <v>43173</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>43271</v>
+        <v>43266</v>
       </c>
       <c r="H39" t="n">
-        <v>9</v>
+        <v>0.1</v>
       </c>
       <c r="I39" t="n">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="J39" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="K39" t="n">
-        <v>25.92489</v>
+        <v>24.66222</v>
       </c>
       <c r="L39" t="n">
-        <v>-81.60935000000001</v>
+        <v>-81.60981</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="1" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B40" t="s">
         <v>32</v>
       </c>
       <c r="C40" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D40" t="s">
         <v>55</v>
@@ -2135,33 +2129,33 @@
         <v>43266</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="J40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K40" t="n">
-        <v>24.66231</v>
+        <v>24.66216</v>
       </c>
       <c r="L40" t="n">
-        <v>-81.60943</v>
+        <v>-81.60999</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="1" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B41" t="s">
         <v>32</v>
       </c>
       <c r="C41" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D41" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="E41" s="2" t="n">
         <v>43057</v>
@@ -2173,33 +2167,33 @@
         <v>43266</v>
       </c>
       <c r="H41" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>9</v>
+        <v>1.5</v>
       </c>
       <c r="J41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K41" t="n">
-        <v>24.66226</v>
+        <v>24.66205</v>
       </c>
       <c r="L41" t="n">
-        <v>-81.6096</v>
+        <v>-81.61015</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="1" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B42" t="s">
         <v>32</v>
       </c>
       <c r="C42" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E42" s="2" t="n">
         <v>43057</v>
@@ -2211,33 +2205,33 @@
         <v>43266</v>
       </c>
       <c r="H42" t="n">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
       <c r="J42" t="n">
-        <v>6.5</v>
+        <v>0.05</v>
       </c>
       <c r="K42" t="n">
-        <v>24.66222</v>
+        <v>24.66201</v>
       </c>
       <c r="L42" t="n">
-        <v>-81.60981</v>
+        <v>-81.61035</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="1" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B43" t="s">
         <v>32</v>
       </c>
       <c r="C43" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E43" s="2" t="n">
         <v>43057</v>
@@ -2249,33 +2243,33 @@
         <v>43266</v>
       </c>
       <c r="H43" t="n">
+        <v>2</v>
+      </c>
+      <c r="I43" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J43" t="n">
         <v>0.05</v>
       </c>
-      <c r="I43" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J43" t="n">
-        <v>2</v>
-      </c>
       <c r="K43" t="n">
-        <v>24.66216</v>
+        <v>24.66192</v>
       </c>
       <c r="L43" t="n">
-        <v>-81.60999</v>
+        <v>-81.61055</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="1" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B44" t="s">
         <v>32</v>
       </c>
       <c r="C44" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E44" s="2" t="n">
         <v>43057</v>
@@ -2287,33 +2281,33 @@
         <v>43266</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I44" t="n">
         <v>1.5</v>
       </c>
       <c r="J44" t="n">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="K44" t="n">
-        <v>24.66205</v>
+        <v>24.66183</v>
       </c>
       <c r="L44" t="n">
-        <v>-81.61015</v>
+        <v>-81.61077</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="1" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B45" t="s">
         <v>32</v>
       </c>
       <c r="C45" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E45" s="2" t="n">
         <v>43057</v>
@@ -2328,30 +2322,30 @@
         <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="J45" t="n">
         <v>0.05</v>
       </c>
       <c r="K45" t="n">
-        <v>24.66201</v>
+        <v>24.66173</v>
       </c>
       <c r="L45" t="n">
-        <v>-81.61035</v>
+        <v>-81.61103</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="1" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B46" t="s">
         <v>32</v>
       </c>
       <c r="C46" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E46" s="2" t="n">
         <v>43057</v>
@@ -2363,33 +2357,33 @@
         <v>43266</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="I46" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="J46" t="n">
         <v>0.05</v>
       </c>
       <c r="K46" t="n">
-        <v>24.66192</v>
+        <v>24.66164</v>
       </c>
       <c r="L46" t="n">
-        <v>-81.61055</v>
+        <v>-81.61109</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="1" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B47" t="s">
         <v>32</v>
       </c>
       <c r="C47" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E47" s="2" t="n">
         <v>43057</v>
@@ -2401,147 +2395,147 @@
         <v>43266</v>
       </c>
       <c r="H47" t="n">
-        <v>5</v>
+        <v>0.25</v>
       </c>
       <c r="I47" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="J47" t="n">
         <v>0.05</v>
       </c>
       <c r="K47" t="n">
-        <v>24.66183</v>
+        <v>24.66145</v>
       </c>
       <c r="L47" t="n">
-        <v>-81.61077</v>
+        <v>-81.61124</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="1" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B48" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D48" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>43057</v>
+        <v>43088</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>43173</v>
+        <v>43128</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>43266</v>
+        <v>43271</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I48" t="n">
-        <v>5</v>
+        <v>1.75</v>
       </c>
       <c r="J48" t="n">
-        <v>0.05</v>
+        <v>3</v>
       </c>
       <c r="K48" t="n">
-        <v>24.66173</v>
+        <v>25.92365</v>
       </c>
       <c r="L48" t="n">
-        <v>-81.61103</v>
+        <v>-81.61239</v>
       </c>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" t="s">
         <v>63</v>
       </c>
-      <c r="B49" t="s">
-        <v>32</v>
-      </c>
-      <c r="C49" t="s">
-        <v>54</v>
-      </c>
       <c r="D49" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>43057</v>
+        <v>43088</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>43173</v>
+        <v>43128</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>43266</v>
+        <v>43271</v>
       </c>
       <c r="H49" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="I49" t="n">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="J49" t="n">
-        <v>0.05</v>
+        <v>3</v>
       </c>
       <c r="K49" t="n">
-        <v>24.66164</v>
+        <v>25.92359</v>
       </c>
       <c r="L49" t="n">
-        <v>-81.61109</v>
+        <v>-81.61248000000001</v>
       </c>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="1" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B50" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D50" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>43057</v>
+        <v>43088</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>43173</v>
+        <v>43128</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>43266</v>
+        <v>43271</v>
       </c>
       <c r="H50" t="n">
-        <v>0.25</v>
+        <v>3</v>
       </c>
       <c r="I50" t="n">
         <v>3.5</v>
       </c>
       <c r="J50" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="K50" t="n">
-        <v>24.66145</v>
+        <v>25.92359</v>
       </c>
       <c r="L50" t="n">
-        <v>-81.61124</v>
+        <v>-81.6125</v>
       </c>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="1" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B51" t="s">
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D51" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E51" s="2" t="n">
         <v>43088</v>
@@ -2553,33 +2547,33 @@
         <v>43271</v>
       </c>
       <c r="H51" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I51" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="J51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K51" t="n">
-        <v>25.92365</v>
+        <v>25.92354</v>
       </c>
       <c r="L51" t="n">
-        <v>-81.61239</v>
+        <v>-81.61254</v>
       </c>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="1" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B52" t="s">
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E52" s="2" t="n">
         <v>43088</v>
@@ -2591,33 +2585,33 @@
         <v>43271</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I52" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="J52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K52" t="n">
-        <v>25.92359</v>
+        <v>25.92348</v>
       </c>
       <c r="L52" t="n">
-        <v>-81.61248000000001</v>
+        <v>-81.61263</v>
       </c>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="1" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B53" t="s">
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D53" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E53" s="2" t="n">
         <v>43088</v>
@@ -2629,33 +2623,33 @@
         <v>43271</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="J53" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K53" t="n">
-        <v>25.92359</v>
+        <v>25.92343</v>
       </c>
       <c r="L53" t="n">
-        <v>-81.6125</v>
+        <v>-81.61269</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="1" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B54" t="s">
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D54" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E54" s="2" t="n">
         <v>43088</v>
@@ -2670,30 +2664,30 @@
         <v>3</v>
       </c>
       <c r="I54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J54" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="K54" t="n">
-        <v>25.92354</v>
+        <v>25.92335</v>
       </c>
       <c r="L54" t="n">
-        <v>-81.61254</v>
+        <v>-81.61273</v>
       </c>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="1" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B55" t="s">
         <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D55" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E55" s="2" t="n">
         <v>43088</v>
@@ -2705,33 +2699,33 @@
         <v>43271</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J55" t="n">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="K55" t="n">
-        <v>25.92348</v>
+        <v>25.92328</v>
       </c>
       <c r="L55" t="n">
-        <v>-81.61263</v>
+        <v>-81.61279</v>
       </c>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="1" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B56" t="s">
         <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D56" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E56" s="2" t="n">
         <v>43088</v>
@@ -2743,7 +2737,7 @@
         <v>43271</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I56" t="n">
         <v>2</v>
@@ -2752,138 +2746,138 @@
         <v>2.5</v>
       </c>
       <c r="K56" t="n">
-        <v>25.92343</v>
+        <v>25.92322</v>
       </c>
       <c r="L56" t="n">
-        <v>-81.61269</v>
+        <v>-81.61287</v>
       </c>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="1" t="n">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B57" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C57" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D57" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>43088</v>
+        <v>43058</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>43128</v>
+        <v>43173</v>
       </c>
       <c r="G57" s="2" t="n">
-        <v>43271</v>
+        <v>43266</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="K57" t="n">
-        <v>25.92335</v>
+        <v>24.6475</v>
       </c>
       <c r="L57" t="n">
-        <v>-81.61273</v>
+        <v>-81.65353</v>
       </c>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="1" t="n">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B58" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C58" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D58" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>43088</v>
+        <v>43056</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>43128</v>
+        <v>43172</v>
       </c>
       <c r="G58" s="2" t="n">
-        <v>43271</v>
+        <v>43267</v>
       </c>
       <c r="H58" t="n">
-        <v>4</v>
+        <v>0.05</v>
       </c>
       <c r="I58" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="J58" t="n">
-        <v>5.5</v>
+        <v>0.25</v>
       </c>
       <c r="K58" t="n">
-        <v>25.92328</v>
+        <v>24.67877</v>
       </c>
       <c r="L58" t="n">
-        <v>-81.61279</v>
+        <v>-81.65358999999999</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B59" t="s">
+        <v>32</v>
+      </c>
+      <c r="C59" t="s">
         <v>73</v>
       </c>
-      <c r="B59" t="s">
-        <v>11</v>
-      </c>
-      <c r="C59" t="s">
-        <v>65</v>
-      </c>
       <c r="D59" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>43088</v>
+        <v>43058</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>43128</v>
+        <v>43173</v>
       </c>
       <c r="G59" s="2" t="n">
-        <v>43271</v>
+        <v>43266</v>
       </c>
       <c r="H59" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>25.92322</v>
+        <v>24.6476</v>
       </c>
       <c r="L59" t="n">
-        <v>-81.61287</v>
+        <v>-81.6536</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="1" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B60" t="s">
         <v>32</v>
       </c>
       <c r="C60" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D60" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E60" s="2" t="n">
         <v>43058</v>
@@ -2898,59 +2892,59 @@
         <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>7.5</v>
+        <v>0.5</v>
       </c>
       <c r="K60" t="n">
-        <v>24.6475</v>
+        <v>24.64763</v>
       </c>
       <c r="L60" t="n">
-        <v>-81.65353</v>
+        <v>-81.65363000000001</v>
       </c>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="1" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B61" t="s">
         <v>32</v>
       </c>
       <c r="C61" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D61" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>43056</v>
+        <v>43058</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>43172</v>
+        <v>43173</v>
       </c>
       <c r="G61" s="2" t="n">
-        <v>43267</v>
+        <v>43266</v>
       </c>
       <c r="H61" t="n">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="I61" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>24.67877</v>
+        <v>24.64763</v>
       </c>
       <c r="L61" t="n">
-        <v>-81.65358999999999</v>
+        <v>-81.65366</v>
       </c>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="1" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B62" t="s">
         <v>32</v>
@@ -2959,45 +2953,45 @@
         <v>75</v>
       </c>
       <c r="D62" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>43058</v>
+        <v>43056</v>
       </c>
       <c r="F62" s="2" t="n">
-        <v>43173</v>
+        <v>43172</v>
       </c>
       <c r="G62" s="2" t="n">
-        <v>43266</v>
+        <v>43267</v>
       </c>
       <c r="H62" t="n">
         <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="K62" t="n">
-        <v>24.6476</v>
+        <v>24.6786</v>
       </c>
       <c r="L62" t="n">
-        <v>-81.6536</v>
+        <v>-81.6537</v>
       </c>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="1" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B63" t="s">
         <v>32</v>
       </c>
       <c r="C63" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D63" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E63" s="2" t="n">
         <v>43058</v>
@@ -3009,33 +3003,33 @@
         <v>43266</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="K63" t="n">
-        <v>24.64763</v>
+        <v>24.64765</v>
       </c>
       <c r="L63" t="n">
-        <v>-81.65363000000001</v>
+        <v>-81.65372000000001</v>
       </c>
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="1" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B64" t="s">
         <v>32</v>
       </c>
       <c r="C64" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D64" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E64" s="2" t="n">
         <v>43058</v>
@@ -3050,68 +3044,68 @@
         <v>0.2</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="K64" t="n">
-        <v>24.64763</v>
+        <v>24.64765</v>
       </c>
       <c r="L64" t="n">
-        <v>-81.65366</v>
+        <v>-81.65376999999999</v>
       </c>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="1" t="n">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B65" t="s">
         <v>32</v>
       </c>
       <c r="C65" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D65" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>43056</v>
+        <v>43058</v>
       </c>
       <c r="F65" s="2" t="n">
-        <v>43172</v>
+        <v>43173</v>
       </c>
       <c r="G65" s="2" t="n">
-        <v>43267</v>
+        <v>43266</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="I65" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="J65" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K65" t="n">
-        <v>24.6786</v>
+        <v>24.64769</v>
       </c>
       <c r="L65" t="n">
-        <v>-81.6537</v>
+        <v>-81.65378</v>
       </c>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="1" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B66" t="s">
         <v>32</v>
       </c>
       <c r="C66" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D66" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E66" s="2" t="n">
         <v>43058</v>
@@ -3123,24 +3117,24 @@
         <v>43266</v>
       </c>
       <c r="H66" t="n">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J66" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>24.64765</v>
+        <v>24.64768</v>
       </c>
       <c r="L66" t="n">
-        <v>-81.65372000000001</v>
+        <v>-81.65382</v>
       </c>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="1" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B67" t="s">
         <v>32</v>
@@ -3149,45 +3143,45 @@
         <v>75</v>
       </c>
       <c r="D67" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="E67" s="2" t="n">
-        <v>43058</v>
+        <v>43056</v>
       </c>
       <c r="F67" s="2" t="n">
-        <v>43173</v>
+        <v>43172</v>
       </c>
       <c r="G67" s="2" t="n">
-        <v>43266</v>
+        <v>43267</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="I67" t="n">
+        <v>3</v>
+      </c>
+      <c r="J67" t="n">
         <v>0.5</v>
       </c>
-      <c r="J67" t="n">
-        <v>0.75</v>
-      </c>
       <c r="K67" t="n">
-        <v>24.64765</v>
+        <v>24.67844</v>
       </c>
       <c r="L67" t="n">
-        <v>-81.65376999999999</v>
+        <v>-81.65384</v>
       </c>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="1" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B68" t="s">
         <v>32</v>
       </c>
       <c r="C68" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D68" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E68" s="2" t="n">
         <v>43058</v>
@@ -3199,33 +3193,33 @@
         <v>43266</v>
       </c>
       <c r="H68" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I68" t="n">
         <v>0.2</v>
       </c>
-      <c r="I68" t="n">
-        <v>0.5</v>
-      </c>
       <c r="J68" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="K68" t="n">
-        <v>24.64769</v>
+        <v>24.6477</v>
       </c>
       <c r="L68" t="n">
-        <v>-81.65378</v>
+        <v>-81.65384</v>
       </c>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="1" t="n">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B69" t="s">
         <v>32</v>
       </c>
       <c r="C69" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D69" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E69" s="2" t="n">
         <v>43058</v>
@@ -3240,68 +3234,68 @@
         <v>0.2</v>
       </c>
       <c r="I69" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="K69" t="n">
-        <v>24.64768</v>
+        <v>24.6477</v>
       </c>
       <c r="L69" t="n">
-        <v>-81.65382</v>
+        <v>-81.65385999999999</v>
       </c>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="1" t="n">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B70" t="s">
         <v>32</v>
       </c>
       <c r="C70" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D70" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="E70" s="2" t="n">
-        <v>43056</v>
+        <v>43058</v>
       </c>
       <c r="F70" s="2" t="n">
-        <v>43172</v>
+        <v>43173</v>
       </c>
       <c r="G70" s="2" t="n">
-        <v>43267</v>
+        <v>43266</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="I70" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="J70" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="K70" t="n">
-        <v>24.67844</v>
+        <v>24.6477</v>
       </c>
       <c r="L70" t="n">
-        <v>-81.65384</v>
+        <v>-81.65389999999999</v>
       </c>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="1" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B71" t="s">
         <v>32</v>
       </c>
       <c r="C71" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D71" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E71" s="2" t="n">
         <v>43058</v>
@@ -3313,24 +3307,24 @@
         <v>43266</v>
       </c>
       <c r="H71" t="n">
-        <v>0.3</v>
+        <v>4</v>
       </c>
       <c r="I71" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="J71" t="n">
-        <v>0.05</v>
+        <v>1.5</v>
       </c>
       <c r="K71" t="n">
-        <v>24.6477</v>
+        <v>24.64771</v>
       </c>
       <c r="L71" t="n">
-        <v>-81.65384</v>
+        <v>-81.65391</v>
       </c>
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="1" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B72" t="s">
         <v>32</v>
@@ -3339,36 +3333,36 @@
         <v>75</v>
       </c>
       <c r="D72" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="E72" s="2" t="n">
-        <v>43058</v>
+        <v>43056</v>
       </c>
       <c r="F72" s="2" t="n">
-        <v>43173</v>
+        <v>43172</v>
       </c>
       <c r="G72" s="2" t="n">
-        <v>43266</v>
+        <v>43267</v>
       </c>
       <c r="H72" t="n">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="I72" t="n">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="J72" t="n">
-        <v>0.75</v>
+        <v>3</v>
       </c>
       <c r="K72" t="n">
-        <v>24.6477</v>
+        <v>24.6782</v>
       </c>
       <c r="L72" t="n">
-        <v>-81.65385999999999</v>
+        <v>-81.65434999999999</v>
       </c>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="1" t="n">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B73" t="s">
         <v>32</v>
@@ -3377,36 +3371,36 @@
         <v>75</v>
       </c>
       <c r="D73" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="E73" s="2" t="n">
-        <v>43058</v>
+        <v>43056</v>
       </c>
       <c r="F73" s="2" t="n">
-        <v>43173</v>
+        <v>43172</v>
       </c>
       <c r="G73" s="2" t="n">
-        <v>43266</v>
+        <v>43267</v>
       </c>
       <c r="H73" t="n">
-        <v>0.75</v>
+        <v>3</v>
       </c>
       <c r="I73" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="J73" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="K73" t="n">
-        <v>24.6477</v>
+        <v>24.67801</v>
       </c>
       <c r="L73" t="n">
-        <v>-81.65389999999999</v>
+        <v>-81.65479999999999</v>
       </c>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="1" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B74" t="s">
         <v>32</v>
@@ -3415,45 +3409,45 @@
         <v>75</v>
       </c>
       <c r="D74" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="E74" s="2" t="n">
-        <v>43058</v>
+        <v>43056</v>
       </c>
       <c r="F74" s="2" t="n">
-        <v>43173</v>
+        <v>43172</v>
       </c>
       <c r="G74" s="2" t="n">
-        <v>43266</v>
+        <v>43267</v>
       </c>
       <c r="H74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I74" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="J74" t="n">
-        <v>1.5</v>
+        <v>7</v>
       </c>
       <c r="K74" t="n">
-        <v>24.64771</v>
+        <v>24.67782</v>
       </c>
       <c r="L74" t="n">
-        <v>-81.65391</v>
+        <v>-81.65483999999999</v>
       </c>
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="1" t="n">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B75" t="s">
         <v>32</v>
       </c>
       <c r="C75" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D75" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E75" s="2" t="n">
         <v>43056</v>
@@ -3465,7 +3459,7 @@
         <v>43267</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I75" t="n">
         <v>2</v>
@@ -3474,24 +3468,24 @@
         <v>3</v>
       </c>
       <c r="K75" t="n">
-        <v>24.6782</v>
+        <v>24.6777</v>
       </c>
       <c r="L75" t="n">
-        <v>-81.65434999999999</v>
+        <v>-81.65496</v>
       </c>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="1" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B76" t="s">
         <v>32</v>
       </c>
       <c r="C76" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D76" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E76" s="2" t="n">
         <v>43056</v>
@@ -3503,132 +3497,18 @@
         <v>43267</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="I76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J76" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="K76" t="n">
-        <v>24.67801</v>
+        <v>24.67763</v>
       </c>
       <c r="L76" t="n">
-        <v>-81.65479999999999</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12">
-      <c r="A77" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B77" t="s">
-        <v>32</v>
-      </c>
-      <c r="C77" t="s">
-        <v>77</v>
-      </c>
-      <c r="D77" t="s">
-        <v>83</v>
-      </c>
-      <c r="E77" s="2" t="n">
-        <v>43056</v>
-      </c>
-      <c r="F77" s="2" t="n">
-        <v>43172</v>
-      </c>
-      <c r="G77" s="2" t="n">
-        <v>43267</v>
-      </c>
-      <c r="H77" t="n">
-        <v>5</v>
-      </c>
-      <c r="I77" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J77" t="n">
-        <v>7</v>
-      </c>
-      <c r="K77" t="n">
-        <v>24.67782</v>
-      </c>
-      <c r="L77" t="n">
-        <v>-81.65483999999999</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12">
-      <c r="A78" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B78" t="s">
-        <v>32</v>
-      </c>
-      <c r="C78" t="s">
-        <v>77</v>
-      </c>
-      <c r="D78" t="s">
-        <v>84</v>
-      </c>
-      <c r="E78" s="2" t="n">
-        <v>43056</v>
-      </c>
-      <c r="F78" s="2" t="n">
-        <v>43172</v>
-      </c>
-      <c r="G78" s="2" t="n">
-        <v>43267</v>
-      </c>
-      <c r="H78" t="n">
-        <v>4</v>
-      </c>
-      <c r="I78" t="n">
-        <v>2</v>
-      </c>
-      <c r="J78" t="n">
-        <v>3</v>
-      </c>
-      <c r="K78" t="n">
-        <v>24.6777</v>
-      </c>
-      <c r="L78" t="n">
-        <v>-81.65496</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12">
-      <c r="A79" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B79" t="s">
-        <v>32</v>
-      </c>
-      <c r="C79" t="s">
-        <v>77</v>
-      </c>
-      <c r="D79" t="s">
-        <v>85</v>
-      </c>
-      <c r="E79" s="2" t="n">
-        <v>43056</v>
-      </c>
-      <c r="F79" s="2" t="n">
-        <v>43172</v>
-      </c>
-      <c r="G79" s="2" t="n">
-        <v>43267</v>
-      </c>
-      <c r="H79" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="I79" t="n">
-        <v>5</v>
-      </c>
-      <c r="J79" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="K79" t="n">
-        <v>24.67763</v>
-      </c>
-      <c r="L79" t="n">
         <v>-81.65503</v>
       </c>
     </row>
